--- a/cf_update/questions.xlsx
+++ b/cf_update/questions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yucheng/Dropbox/oTree/cf_update/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yucheng/Dropbox/oTree/cf_iia/cf_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13620" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13620" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="original18" sheetId="1" r:id="rId1"/>
@@ -276,8 +276,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -307,7 +309,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -316,6 +318,7 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -323,6 +326,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -599,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -6556,7 +6560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L600"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -24486,7 +24490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -32997,7 +33001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A177"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A177"/>
     </sheetView>
   </sheetViews>
@@ -33011,289 +33015,289 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,questions18!H2-1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f ca="1">RANDBETWEEN(0,questions18!H3-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f ca="1">RANDBETWEEN(0,questions18!H4-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f ca="1">RANDBETWEEN(0,questions18!H5-1)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,questions18!H6-1)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,questions18!H7-1)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f ca="1">RANDBETWEEN(0,questions18!H8-1)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,questions18!H9-1)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,questions18!H10-1)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f ca="1">RANDBETWEEN(0,questions18!H11-1)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f ca="1">RANDBETWEEN(0,questions18!H12-1)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,questions18!H13-1)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f ca="1">RANDBETWEEN(0,questions18!H14-1)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,questions18!H15-1)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,questions18!H16-1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,questions18!H17-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,questions18!H18-1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f ca="1">RANDBETWEEN(0,questions18!H19-1)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,questions18!H20-1)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f ca="1">RANDBETWEEN(0,questions18!H21-1)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f ca="1">RANDBETWEEN(0,questions18!H22-1)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f ca="1">RANDBETWEEN(0,questions18!H23-1)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f ca="1">RANDBETWEEN(0,questions18!H24-1)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f ca="1">RANDBETWEEN(0,questions18!H25-1)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f ca="1">RANDBETWEEN(0,questions18!H26-1)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f ca="1">RANDBETWEEN(0,questions18!H27-1)</f>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,questions18!H28-1)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f ca="1">RANDBETWEEN(0,questions18!H29-1)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f ca="1">RANDBETWEEN(0,questions18!H30-1)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,questions18!H31-1)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f ca="1">RANDBETWEEN(0,questions18!H32-1)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <f ca="1">RANDBETWEEN(0,questions18!H33-1)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f ca="1">RANDBETWEEN(0,questions18!H34-1)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,questions18!H35-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f ca="1">RANDBETWEEN(0,questions18!H36-1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f ca="1">RANDBETWEEN(0,questions18!H37-1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,questions18!H38-1)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f ca="1">RANDBETWEEN(0,questions18!H39-1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f ca="1">RANDBETWEEN(0,questions18!H40-1)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,questions18!H41-1)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <f ca="1">RANDBETWEEN(0,questions18!H42-1)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f ca="1">RANDBETWEEN(0,questions18!H43-1)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,questions18!H44-1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f ca="1">RANDBETWEEN(0,questions18!H45-1)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f ca="1">RANDBETWEEN(0,questions18!H46-1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,questions18!H47-1)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f ca="1">RANDBETWEEN(0,questions18!H48-1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f ca="1">RANDBETWEEN(0,questions18!H49-1)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -33317,7 +33321,7 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,questions18!H53-1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
@@ -33329,55 +33333,55 @@
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f ca="1">RANDBETWEEN(0,questions18!H55-1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f ca="1">RANDBETWEEN(0,questions18!H56-1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,questions18!H57-1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f ca="1">RANDBETWEEN(0,questions18!H58-1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,questions18!H59-1)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,questions18!H60-1)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61">
         <f ca="1">RANDBETWEEN(0,questions18!H61-1)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62">
         <f ca="1">RANDBETWEEN(0,questions18!H62-1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f ca="1">RANDBETWEEN(0,questions18!H63-1)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
@@ -33389,7 +33393,7 @@
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f ca="1">RANDBETWEEN(0,questions18!H65-1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -34075,8 +34079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36901,16 +36905,222 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="P44">
+        <v>12</v>
+      </c>
+      <c r="R44">
+        <v>0.5</v>
+      </c>
+      <c r="S44">
+        <v>0.5</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="P45">
+        <v>12</v>
+      </c>
+      <c r="R45">
+        <v>0.5</v>
+      </c>
+      <c r="S45">
+        <v>0.5</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <v>12</v>
+      </c>
+      <c r="R46">
+        <v>0.5</v>
+      </c>
+      <c r="S46">
+        <v>0.5</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>10</v>
+      </c>
+      <c r="P47">
+        <v>12</v>
+      </c>
+      <c r="R47">
+        <v>0.5</v>
+      </c>
+      <c r="S47">
+        <v>0.5</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -36935,10 +37145,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y43"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:Y43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37022,6 +37232,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <f>original12!A2</f>
         <v>1</v>
       </c>
       <c r="B2">
@@ -37078,7 +37289,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(0,P2-1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R2">
         <v>0.5</v>
@@ -37113,6 +37324,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <f>original12!A3</f>
         <v>2</v>
       </c>
       <c r="B3">
@@ -37141,7 +37353,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I43" ca="1" si="2">RANDBETWEEN(0,H3-1)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <f>INDEX(original12!$J3:$N3,randomization!H3)</f>
@@ -37169,7 +37381,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q43" ca="1" si="4">RANDBETWEEN(0,P3-1)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0.5</v>
@@ -37204,6 +37416,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <f>original12!A4</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -37232,7 +37445,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <f>INDEX(original12!$J4:$N4,randomization!H4)</f>
@@ -37260,7 +37473,7 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>0.5</v>
@@ -37295,6 +37508,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
+        <f>original12!A5</f>
         <v>4</v>
       </c>
       <c r="B5">
@@ -37323,7 +37537,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <f>INDEX(original12!$J5:$N5,randomization!H5)</f>
@@ -37351,7 +37565,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5">
         <v>0.5</v>
@@ -37386,6 +37600,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <f>original12!A6</f>
         <v>5</v>
       </c>
       <c r="B6">
@@ -37414,7 +37629,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>INDEX(original12!$J6:$N6,randomization!H6)</f>
@@ -37442,7 +37657,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R6">
         <v>0.5</v>
@@ -37477,6 +37692,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <f>original12!A7</f>
         <v>6</v>
       </c>
       <c r="B7">
@@ -37505,7 +37721,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <f>INDEX(original12!$J7:$N7,randomization!H7)</f>
@@ -37533,7 +37749,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -37568,6 +37784,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
+        <f>original12!A8</f>
         <v>7</v>
       </c>
       <c r="B8">
@@ -37596,7 +37813,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <f>INDEX(original12!$J8:$N8,randomization!H8)</f>
@@ -37624,7 +37841,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R8">
         <v>0.5</v>
@@ -37659,6 +37876,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <f>original12!A9</f>
         <v>8</v>
       </c>
       <c r="B9">
@@ -37687,7 +37905,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <f>INDEX(original12!$J9:$N9,randomization!H9)</f>
@@ -37715,7 +37933,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -37750,6 +37968,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <f>original12!A10</f>
         <v>9</v>
       </c>
       <c r="B10">
@@ -37778,7 +37997,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <f>INDEX(original12!$J10:$N10,randomization!H10)</f>
@@ -37806,7 +38025,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R10">
         <v>0.5</v>
@@ -37841,6 +38060,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
+        <f>original12!A11</f>
         <v>10</v>
       </c>
       <c r="B11">
@@ -37897,7 +38117,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0.5</v>
@@ -37932,6 +38152,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <f>original12!A12</f>
         <v>11</v>
       </c>
       <c r="B12">
@@ -37960,7 +38181,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <f>INDEX(original12!$J12:$N12,randomization!H12)</f>
@@ -37988,7 +38209,7 @@
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0.5</v>
@@ -38023,6 +38244,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
+        <f>original12!A13</f>
         <v>12</v>
       </c>
       <c r="B13">
@@ -38079,7 +38301,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R13">
         <v>0.5</v>
@@ -38114,6 +38336,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
+        <f>original12!A14</f>
         <v>13</v>
       </c>
       <c r="B14">
@@ -38142,7 +38365,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <f>INDEX(original12!$J14:$N14,randomization!H14)</f>
@@ -38170,7 +38393,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R14">
         <v>0.5</v>
@@ -38205,6 +38428,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
+        <f>original12!A15</f>
         <v>14</v>
       </c>
       <c r="B15">
@@ -38233,7 +38457,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f>INDEX(original12!$J15:$N15,randomization!H15)</f>
@@ -38261,7 +38485,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R15">
         <v>0.5</v>
@@ -38296,6 +38520,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
+        <f>original12!A16</f>
         <v>15</v>
       </c>
       <c r="B16">
@@ -38324,7 +38549,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <f>INDEX(original12!$J16:$N16,randomization!H16)</f>
@@ -38352,7 +38577,7 @@
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>0.5</v>
@@ -38365,28 +38590,29 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <f t="shared" ref="U16:U43" si="7">IF(AND(C16=0,K16=0),0,1)</f>
+        <f t="shared" ref="U16:U47" si="7">IF(AND(C16=0,K16=0),0,1)</f>
         <v>0</v>
       </c>
       <c r="V16">
-        <f t="shared" ref="V16:V43" si="8">IF(AND(D16=0,L16=0),0,1)</f>
+        <f t="shared" ref="V16:V47" si="8">IF(AND(D16=0,L16=0),0,1)</f>
         <v>1</v>
       </c>
       <c r="W16">
-        <f t="shared" ref="W16:W43" si="9">IF(AND(E16=0,M16=0),0,1)</f>
+        <f t="shared" ref="W16:W47" si="9">IF(AND(E16=0,M16=0),0,1)</f>
         <v>1</v>
       </c>
       <c r="X16">
-        <f t="shared" ref="X16:X43" si="10">IF(AND(F16=0,N16=0),0,1)</f>
+        <f t="shared" ref="X16:X47" si="10">IF(AND(F16=0,N16=0),0,1)</f>
         <v>1</v>
       </c>
       <c r="Y16">
-        <f t="shared" ref="Y16:Y43" si="11">IF(AND(G16=0,O16=0),0,1)</f>
+        <f t="shared" ref="Y16:Y47" si="11">IF(AND(G16=0,O16=0),0,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <f>original12!A17</f>
         <v>16</v>
       </c>
       <c r="B17">
@@ -38415,7 +38641,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J17">
         <f>INDEX(original12!$J17:$N17,randomization!H17)</f>
@@ -38443,7 +38669,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R17">
         <v>0.5</v>
@@ -38478,6 +38704,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
+        <f>original12!A18</f>
         <v>17</v>
       </c>
       <c r="B18">
@@ -38506,7 +38733,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <f>INDEX(original12!$J18:$N18,randomization!H18)</f>
@@ -38534,7 +38761,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0.5</v>
@@ -38569,6 +38796,7 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
+        <f>original12!A19</f>
         <v>18</v>
       </c>
       <c r="B19">
@@ -38597,7 +38825,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19">
         <f>INDEX(original12!$J19:$N19,randomization!H19)</f>
@@ -38660,6 +38888,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
+        <f>original12!A20</f>
         <v>19</v>
       </c>
       <c r="B20">
@@ -38688,7 +38917,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <f>INDEX(original12!$J20:$N20,randomization!H20)</f>
@@ -38716,7 +38945,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R20">
         <v>0.5</v>
@@ -38751,6 +38980,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
+        <f>original12!A21</f>
         <v>20</v>
       </c>
       <c r="B21">
@@ -38779,7 +39009,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <f>INDEX(original12!$J21:$N21,randomization!H21)</f>
@@ -38842,6 +39072,7 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
+        <f>original12!A22</f>
         <v>21</v>
       </c>
       <c r="B22">
@@ -38870,7 +39101,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <f>INDEX(original12!$J22:$N22,randomization!H22)</f>
@@ -38898,7 +39129,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0.5</v>
@@ -38933,6 +39164,7 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
+        <f>original12!A23</f>
         <v>22</v>
       </c>
       <c r="B23">
@@ -38961,7 +39193,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>INDEX(original12!$J23:$N23,randomization!H23)</f>
@@ -38989,7 +39221,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0.5</v>
@@ -39024,6 +39256,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
+        <f>original12!A24</f>
         <v>23</v>
       </c>
       <c r="B24">
@@ -39052,7 +39285,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <f>INDEX(original12!$J24:$N24,randomization!H24)</f>
@@ -39080,7 +39313,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R24">
         <v>0.5</v>
@@ -39115,6 +39348,7 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
+        <f>original12!A25</f>
         <v>24</v>
       </c>
       <c r="B25">
@@ -39143,7 +39377,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <f>INDEX(original12!$J25:$N25,randomization!H25)</f>
@@ -39171,7 +39405,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>0.5</v>
@@ -39206,6 +39440,7 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
+        <f>original12!A26</f>
         <v>25</v>
       </c>
       <c r="B26">
@@ -39234,7 +39469,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J26">
         <f>INDEX(original12!$J26:$N26,randomization!H26)</f>
@@ -39262,7 +39497,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R26">
         <v>0.5</v>
@@ -39297,6 +39532,7 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
+        <f>original12!A27</f>
         <v>26</v>
       </c>
       <c r="B27">
@@ -39325,7 +39561,7 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J27">
         <f>INDEX(original12!$J27:$N27,randomization!H27)</f>
@@ -39353,7 +39589,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R27">
         <v>0.5</v>
@@ -39388,6 +39624,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
+        <f>original12!A28</f>
         <v>27</v>
       </c>
       <c r="B28">
@@ -39416,7 +39653,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <f>INDEX(original12!$J28:$N28,randomization!H28)</f>
@@ -39444,7 +39681,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R28">
         <v>0.5</v>
@@ -39479,6 +39716,7 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
+        <f>original12!A29</f>
         <v>28</v>
       </c>
       <c r="B29">
@@ -39507,7 +39745,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f>INDEX(original12!$J29:$N29,randomization!H29)</f>
@@ -39535,7 +39773,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>0.5</v>
@@ -39570,6 +39808,7 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
+        <f>original12!A30</f>
         <v>29</v>
       </c>
       <c r="B30">
@@ -39598,7 +39837,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J30">
         <f>INDEX(original12!$J30:$N30,randomization!H30)</f>
@@ -39626,7 +39865,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>0.5</v>
@@ -39661,6 +39900,7 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
+        <f>original12!A31</f>
         <v>30</v>
       </c>
       <c r="B31">
@@ -39689,7 +39929,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <f>INDEX(original12!$J31:$N31,randomization!H31)</f>
@@ -39717,7 +39957,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0.5</v>
@@ -39752,6 +39992,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
+        <f>original12!A32</f>
         <v>31</v>
       </c>
       <c r="B32">
@@ -39780,7 +40021,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J32">
         <f>INDEX(original12!$J32:$N32,randomization!H32)</f>
@@ -39808,7 +40049,7 @@
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R32">
         <v>0.5</v>
@@ -39843,6 +40084,7 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
+        <f>original12!A33</f>
         <v>32</v>
       </c>
       <c r="B33">
@@ -39899,7 +40141,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R33">
         <v>0.5</v>
@@ -39934,6 +40176,7 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
+        <f>original12!A34</f>
         <v>33</v>
       </c>
       <c r="B34">
@@ -39962,7 +40205,7 @@
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J34">
         <f>INDEX(original12!$J34:$N34,randomization!H34)</f>
@@ -39990,7 +40233,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R34">
         <v>0.5</v>
@@ -40025,6 +40268,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
+        <f>original12!A35</f>
         <v>34</v>
       </c>
       <c r="B35">
@@ -40053,7 +40297,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J35">
         <f>INDEX(original12!$J35:$N35,randomization!H35)</f>
@@ -40081,7 +40325,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="R35">
         <v>0.5</v>
@@ -40116,6 +40360,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
+        <f>original12!A36</f>
         <v>35</v>
       </c>
       <c r="B36">
@@ -40144,7 +40389,7 @@
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J36">
         <f>INDEX(original12!$J36:$N36,randomization!H36)</f>
@@ -40172,7 +40417,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R36">
         <v>0.5</v>
@@ -40207,6 +40452,7 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
+        <f>original12!A37</f>
         <v>36</v>
       </c>
       <c r="B37">
@@ -40235,7 +40481,7 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <f>INDEX(original12!$J37:$N37,randomization!H37)</f>
@@ -40263,7 +40509,7 @@
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R37">
         <v>0.5</v>
@@ -40298,6 +40544,7 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
+        <f>original12!A38</f>
         <v>37</v>
       </c>
       <c r="B38">
@@ -40326,7 +40573,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <f>INDEX(original12!$J38:$N38,randomization!H38)</f>
@@ -40354,7 +40601,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R38">
         <v>0.5</v>
@@ -40389,6 +40636,7 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
+        <f>original12!A39</f>
         <v>38</v>
       </c>
       <c r="B39">
@@ -40417,7 +40665,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J39">
         <f>INDEX(original12!$J39:$N39,randomization!H39)</f>
@@ -40445,7 +40693,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R39">
         <v>0.5</v>
@@ -40480,6 +40728,7 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
+        <f>original12!A40</f>
         <v>39</v>
       </c>
       <c r="B40">
@@ -40508,7 +40757,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J40">
         <f>INDEX(original12!$J40:$N40,randomization!H40)</f>
@@ -40536,7 +40785,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R40">
         <v>0.5</v>
@@ -40571,6 +40820,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
+        <f>original12!A41</f>
         <v>40</v>
       </c>
       <c r="B41">
@@ -40599,7 +40849,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J41">
         <f>INDEX(original12!$J41:$N41,randomization!H41)</f>
@@ -40627,7 +40877,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R41">
         <v>0.5</v>
@@ -40662,6 +40912,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
+        <f>original12!A42</f>
         <v>41</v>
       </c>
       <c r="B42">
@@ -40690,7 +40941,7 @@
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J42">
         <f>INDEX(original12!$J42:$N42,randomization!H42)</f>
@@ -40718,7 +40969,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R42">
         <v>0.5</v>
@@ -40753,6 +41004,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
+        <f>original12!A43</f>
         <v>42</v>
       </c>
       <c r="B43">
@@ -40781,7 +41033,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f>INDEX(original12!$J43:$N43,randomization!H43)</f>
@@ -40809,7 +41061,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0.5</v>
@@ -40841,6 +41093,380 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f>original12!A44</f>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f>INDEX(original12!$B44:$F44,randomization!H44)</f>
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <f>INDEX(original12!$B44:$F44,randomization!I44)</f>
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f>INDEX(original12!$B44:$F44,randomization!J44)</f>
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <f>INDEX(original12!$B44:$F44,randomization!K44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>INDEX(original12!$B44:$F44,randomization!L44)</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>SUM(B44:G44)</f>
+        <v>12</v>
+      </c>
+      <c r="I44">
+        <f ca="1">RANDBETWEEN(0,H44-1)</f>
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <f>INDEX(original12!$J44:$N44,randomization!H44)</f>
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <f>INDEX(original12!$J44:$N44,randomization!I44)</f>
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <f>INDEX(original12!$J44:$N44,randomization!J44)</f>
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <f>INDEX(original12!$J44:$N44,randomization!K44)</f>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f>INDEX(original12!$J44:$N44,randomization!L44)</f>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f>SUM(J44:O44)</f>
+        <v>12</v>
+      </c>
+      <c r="Q44">
+        <f ca="1">RANDBETWEEN(0,P44-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>0.5</v>
+      </c>
+      <c r="S44">
+        <v>0.5</v>
+      </c>
+      <c r="T44">
+        <f>IF(AND(B44=0,J44=0),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f>original12!A45</f>
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <f>INDEX(original12!$B45:$F45,randomization!H45)</f>
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <f>INDEX(original12!$B45:$F45,randomization!I45)</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>INDEX(original12!$B45:$F45,randomization!J45)</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>INDEX(original12!$B45:$F45,randomization!K45)</f>
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f>INDEX(original12!$B45:$F45,randomization!L45)</f>
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ref="H45:H47" si="14">SUM(B45:G45)</f>
+        <v>12</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I45:I47" ca="1" si="15">RANDBETWEEN(0,H45-1)</f>
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <f>INDEX(original12!$J45:$N45,randomization!H45)</f>
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <f>INDEX(original12!$J45:$N45,randomization!I45)</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f>INDEX(original12!$J45:$N45,randomization!J45)</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f>INDEX(original12!$J45:$N45,randomization!K45)</f>
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <f>INDEX(original12!$J45:$N45,randomization!L45)</f>
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45:P47" si="16">SUM(J45:O45)</f>
+        <v>12</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" ref="Q45:Q47" ca="1" si="17">RANDBETWEEN(0,P45-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0.5</v>
+      </c>
+      <c r="S45">
+        <v>0.5</v>
+      </c>
+      <c r="T45">
+        <f t="shared" ref="T45:T47" si="18">IF(AND(B45=0,J45=0),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f>original12!A46</f>
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <f>INDEX(original12!$B46:$F46,randomization!H46)</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>INDEX(original12!$B46:$F46,randomization!I46)</f>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f>INDEX(original12!$B46:$F46,randomization!J46)</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>INDEX(original12!$B46:$F46,randomization!K46)</f>
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f>INDEX(original12!$B46:$F46,randomization!L46)</f>
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ca="1" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <f>INDEX(original12!$J46:$N46,randomization!H46)</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>INDEX(original12!$J46:$N46,randomization!I46)</f>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <f>INDEX(original12!$J46:$N46,randomization!J46)</f>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f>INDEX(original12!$J46:$N46,randomization!K46)</f>
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <f>INDEX(original12!$J46:$N46,randomization!L46)</f>
+        <v>5</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="R46">
+        <v>0.5</v>
+      </c>
+      <c r="S46">
+        <v>0.5</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f>original12!A47</f>
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <f>INDEX(original12!$B47:$F47,randomization!H47)</f>
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <f>INDEX(original12!$B47:$F47,randomization!I47)</f>
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <f>INDEX(original12!$B47:$F47,randomization!J47)</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>INDEX(original12!$B47:$F47,randomization!K47)</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>INDEX(original12!$B47:$F47,randomization!L47)</f>
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <f>INDEX(original12!$J47:$N47,randomization!H47)</f>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <f>INDEX(original12!$J47:$N47,randomization!I47)</f>
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <f>INDEX(original12!$J47:$N47,randomization!J47)</f>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f>INDEX(original12!$J47:$N47,randomization!K47)</f>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f>INDEX(original12!$J47:$N47,randomization!L47)</f>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="R47">
+        <v>0.5</v>
+      </c>
+      <c r="S47">
+        <v>0.5</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cf_update/questions.xlsx
+++ b/cf_update/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13620" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="24960" windowHeight="13620" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="original18" sheetId="1" r:id="rId1"/>
@@ -33015,187 +33015,187 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <f ca="1">RANDBETWEEN(0,questions18!H2-1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <f ca="1">RANDBETWEEN(0,questions18!H3-1)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <f ca="1">RANDBETWEEN(0,questions18!H4-1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <f ca="1">RANDBETWEEN(0,questions18!H5-1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <f ca="1">RANDBETWEEN(0,questions18!H6-1)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <f ca="1">RANDBETWEEN(0,questions18!H7-1)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <f ca="1">RANDBETWEEN(0,questions18!H8-1)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <f ca="1">RANDBETWEEN(0,questions18!H9-1)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <f ca="1">RANDBETWEEN(0,questions18!H10-1)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <f ca="1">RANDBETWEEN(0,questions18!H11-1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <f ca="1">RANDBETWEEN(0,questions18!H12-1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <f ca="1">RANDBETWEEN(0,questions18!H13-1)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <f ca="1">RANDBETWEEN(0,questions18!H14-1)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <f ca="1">RANDBETWEEN(0,questions18!H15-1)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <f ca="1">RANDBETWEEN(0,questions18!H16-1)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <f ca="1">RANDBETWEEN(0,questions18!H17-1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <f ca="1">RANDBETWEEN(0,questions18!H18-1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <f ca="1">RANDBETWEEN(0,questions18!H19-1)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <f ca="1">RANDBETWEEN(0,questions18!H20-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <f ca="1">RANDBETWEEN(0,questions18!H21-1)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <f ca="1">RANDBETWEEN(0,questions18!H22-1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <f ca="1">RANDBETWEEN(0,questions18!H23-1)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <f ca="1">RANDBETWEEN(0,questions18!H24-1)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <f ca="1">RANDBETWEEN(0,questions18!H25-1)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <f ca="1">RANDBETWEEN(0,questions18!H26-1)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <f ca="1">RANDBETWEEN(0,questions18!H27-1)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <f ca="1">RANDBETWEEN(0,questions18!H28-1)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <f ca="1">RANDBETWEEN(0,questions18!H29-1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <f ca="1">RANDBETWEEN(0,questions18!H30-1)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <f ca="1">RANDBETWEEN(0,questions18!H31-1)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <f ca="1">RANDBETWEEN(0,questions18!H32-1)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -33207,49 +33207,49 @@
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <f ca="1">RANDBETWEEN(0,questions18!H34-1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <f ca="1">RANDBETWEEN(0,questions18!H35-1)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <f ca="1">RANDBETWEEN(0,questions18!H36-1)</f>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <f ca="1">RANDBETWEEN(0,questions18!H37-1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <f ca="1">RANDBETWEEN(0,questions18!H38-1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <f ca="1">RANDBETWEEN(0,questions18!H39-1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <f ca="1">RANDBETWEEN(0,questions18!H40-1)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <f ca="1">RANDBETWEEN(0,questions18!H41-1)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
@@ -33261,43 +33261,43 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <f ca="1">RANDBETWEEN(0,questions18!H43-1)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <f ca="1">RANDBETWEEN(0,questions18!H44-1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <f ca="1">RANDBETWEEN(0,questions18!H45-1)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <f ca="1">RANDBETWEEN(0,questions18!H46-1)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <f ca="1">RANDBETWEEN(0,questions18!H47-1)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <f ca="1">RANDBETWEEN(0,questions18!H48-1)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <f ca="1">RANDBETWEEN(0,questions18!H49-1)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
@@ -33321,49 +33321,49 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <f ca="1">RANDBETWEEN(0,questions18!H53-1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <f ca="1">RANDBETWEEN(0,questions18!H54-1)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <f ca="1">RANDBETWEEN(0,questions18!H55-1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <f ca="1">RANDBETWEEN(0,questions18!H56-1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <f ca="1">RANDBETWEEN(0,questions18!H57-1)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58">
         <f ca="1">RANDBETWEEN(0,questions18!H58-1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59">
         <f ca="1">RANDBETWEEN(0,questions18!H59-1)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60">
         <f ca="1">RANDBETWEEN(0,questions18!H60-1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
@@ -33381,19 +33381,19 @@
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63">
         <f ca="1">RANDBETWEEN(0,questions18!H63-1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64">
         <f ca="1">RANDBETWEEN(0,questions18!H64-1)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65">
         <f ca="1">RANDBETWEEN(0,questions18!H65-1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
@@ -34079,8 +34079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37147,7 +37147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:Y47"/>
     </sheetView>
   </sheetViews>
@@ -37261,7 +37261,7 @@
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(0,H2-1)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <f>INDEX(original12!$J2:$N2,randomization!H2)</f>
@@ -37289,7 +37289,7 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(0,P2-1)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R2">
         <v>0.5</v>
@@ -37381,7 +37381,7 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q43" ca="1" si="4">RANDBETWEEN(0,P3-1)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R3">
         <v>0.5</v>
@@ -37445,7 +37445,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <f>INDEX(original12!$J4:$N4,randomization!H4)</f>
@@ -37473,7 +37473,7 @@
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R4">
         <v>0.5</v>
@@ -37537,7 +37537,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <f>INDEX(original12!$J5:$N5,randomization!H5)</f>
@@ -37565,7 +37565,7 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R5">
         <v>0.5</v>
@@ -37629,7 +37629,7 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6">
         <f>INDEX(original12!$J6:$N6,randomization!H6)</f>
@@ -37657,7 +37657,7 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R6">
         <v>0.5</v>
@@ -37721,7 +37721,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <f>INDEX(original12!$J7:$N7,randomization!H7)</f>
@@ -37749,7 +37749,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>0.5</v>
@@ -37813,7 +37813,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <f>INDEX(original12!$J8:$N8,randomization!H8)</f>
@@ -37841,7 +37841,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R8">
         <v>0.5</v>
@@ -37905,7 +37905,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f>INDEX(original12!$J9:$N9,randomization!H9)</f>
@@ -37933,7 +37933,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -37997,7 +37997,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <f>INDEX(original12!$J10:$N10,randomization!H10)</f>
@@ -38025,7 +38025,7 @@
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0.5</v>
@@ -38089,7 +38089,7 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <f>INDEX(original12!$J11:$N11,randomization!H11)</f>
@@ -38117,7 +38117,7 @@
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R11">
         <v>0.5</v>
@@ -38181,7 +38181,7 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <f>INDEX(original12!$J12:$N12,randomization!H12)</f>
@@ -38273,7 +38273,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <f>INDEX(original12!$J13:$N13,randomization!H13)</f>
@@ -38301,7 +38301,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R13">
         <v>0.5</v>
@@ -38365,7 +38365,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <f>INDEX(original12!$J14:$N14,randomization!H14)</f>
@@ -38393,7 +38393,7 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R14">
         <v>0.5</v>
@@ -38457,7 +38457,7 @@
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <f>INDEX(original12!$J15:$N15,randomization!H15)</f>
@@ -38485,7 +38485,7 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0.5</v>
@@ -38549,7 +38549,7 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <f>INDEX(original12!$J16:$N16,randomization!H16)</f>
@@ -38641,7 +38641,7 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <f>INDEX(original12!$J17:$N17,randomization!H17)</f>
@@ -38669,7 +38669,7 @@
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>0.5</v>
@@ -38733,7 +38733,7 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <f>INDEX(original12!$J18:$N18,randomization!H18)</f>
@@ -38761,7 +38761,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>0.5</v>
@@ -38825,7 +38825,7 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <f>INDEX(original12!$J19:$N19,randomization!H19)</f>
@@ -38853,7 +38853,7 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R19">
         <v>0.5</v>
@@ -38917,7 +38917,7 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <f>INDEX(original12!$J20:$N20,randomization!H20)</f>
@@ -38945,7 +38945,7 @@
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>0.5</v>
@@ -39009,7 +39009,7 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <f>INDEX(original12!$J21:$N21,randomization!H21)</f>
@@ -39037,7 +39037,7 @@
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>0.5</v>
@@ -39101,7 +39101,7 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f>INDEX(original12!$J22:$N22,randomization!H22)</f>
@@ -39129,7 +39129,7 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>0.5</v>
@@ -39193,7 +39193,7 @@
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <f>INDEX(original12!$J23:$N23,randomization!H23)</f>
@@ -39221,7 +39221,7 @@
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R23">
         <v>0.5</v>
@@ -39285,7 +39285,7 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <f>INDEX(original12!$J24:$N24,randomization!H24)</f>
@@ -39313,7 +39313,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R24">
         <v>0.5</v>
@@ -39377,7 +39377,7 @@
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25">
         <f>INDEX(original12!$J25:$N25,randomization!H25)</f>
@@ -39405,7 +39405,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>0.5</v>
@@ -39469,7 +39469,7 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J26">
         <f>INDEX(original12!$J26:$N26,randomization!H26)</f>
@@ -39497,7 +39497,7 @@
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R26">
         <v>0.5</v>
@@ -39561,7 +39561,7 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <f>INDEX(original12!$J27:$N27,randomization!H27)</f>
@@ -39589,7 +39589,7 @@
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R27">
         <v>0.5</v>
@@ -39653,7 +39653,7 @@
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <f>INDEX(original12!$J28:$N28,randomization!H28)</f>
@@ -39681,7 +39681,7 @@
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>0.5</v>
@@ -39745,7 +39745,7 @@
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <f>INDEX(original12!$J29:$N29,randomization!H29)</f>
@@ -39773,7 +39773,7 @@
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R29">
         <v>0.5</v>
@@ -39837,7 +39837,7 @@
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <f>INDEX(original12!$J30:$N30,randomization!H30)</f>
@@ -39865,7 +39865,7 @@
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R30">
         <v>0.5</v>
@@ -39929,7 +39929,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31">
         <f>INDEX(original12!$J31:$N31,randomization!H31)</f>
@@ -39957,7 +39957,7 @@
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R31">
         <v>0.5</v>
@@ -40021,7 +40021,7 @@
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J32">
         <f>INDEX(original12!$J32:$N32,randomization!H32)</f>
@@ -40113,7 +40113,7 @@
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <f>INDEX(original12!$J33:$N33,randomization!H33)</f>
@@ -40141,7 +40141,7 @@
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0.5</v>
@@ -40233,7 +40233,7 @@
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R34">
         <v>0.5</v>
@@ -40297,7 +40297,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J35">
         <f>INDEX(original12!$J35:$N35,randomization!H35)</f>
@@ -40325,7 +40325,7 @@
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R35">
         <v>0.5</v>
@@ -40417,7 +40417,7 @@
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R36">
         <v>0.5</v>
@@ -40481,7 +40481,7 @@
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J37">
         <f>INDEX(original12!$J37:$N37,randomization!H37)</f>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J38">
         <f>INDEX(original12!$J38:$N38,randomization!H38)</f>
@@ -40601,7 +40601,7 @@
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>0.5</v>
@@ -40665,7 +40665,7 @@
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <f>INDEX(original12!$J39:$N39,randomization!H39)</f>
@@ -40693,7 +40693,7 @@
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R39">
         <v>0.5</v>
@@ -40757,7 +40757,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J40">
         <f>INDEX(original12!$J40:$N40,randomization!H40)</f>
@@ -40785,7 +40785,7 @@
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R40">
         <v>0.5</v>
@@ -40849,7 +40849,7 @@
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J41">
         <f>INDEX(original12!$J41:$N41,randomization!H41)</f>
@@ -40877,7 +40877,7 @@
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R41">
         <v>0.5</v>
@@ -40969,7 +40969,7 @@
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>0.5</v>
@@ -41033,7 +41033,7 @@
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <f>INDEX(original12!$J43:$N43,randomization!H43)</f>
@@ -41061,7 +41061,7 @@
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R43">
         <v>0.5</v>
@@ -41125,7 +41125,7 @@
       </c>
       <c r="I44">
         <f ca="1">RANDBETWEEN(0,H44-1)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J44">
         <f>INDEX(original12!$J44:$N44,randomization!H44)</f>
@@ -41153,7 +41153,7 @@
       </c>
       <c r="Q44">
         <f ca="1">RANDBETWEEN(0,P44-1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R44">
         <v>0.5</v>
@@ -41217,7 +41217,7 @@
       </c>
       <c r="I45">
         <f t="shared" ref="I45:I47" ca="1" si="15">RANDBETWEEN(0,H45-1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J45">
         <f>INDEX(original12!$J45:$N45,randomization!H45)</f>
@@ -41245,7 +41245,7 @@
       </c>
       <c r="Q45">
         <f t="shared" ref="Q45:Q47" ca="1" si="17">RANDBETWEEN(0,P45-1)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R45">
         <v>0.5</v>
@@ -41309,7 +41309,7 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J46">
         <f>INDEX(original12!$J46:$N46,randomization!H46)</f>
@@ -41337,7 +41337,7 @@
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="17"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R46">
         <v>0.5</v>
@@ -41401,7 +41401,7 @@
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J47">
         <f>INDEX(original12!$J47:$N47,randomization!H47)</f>
@@ -41429,7 +41429,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="17"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R47">
         <v>0.5</v>
